--- a/pred_ohlcv/54_21/2020-01-15 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LBA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-60740.13919999997</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-60740.13919999997</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-52140.13919999997</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-35715.19489999997</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-198346.492</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-362795.4315</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-208882.7592</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1774076.037612906</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2014398.252212906</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2447005.419912906</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3100672.186670761</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2567010.357015657</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2511821.447015657</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2511821.447015657</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2960268.8941027</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1959688.559006464</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1642775.412538358</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>275875.6037665874</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-492153.9472334125</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-997780.7592663595</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LBA ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-60740.13919999997</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-52140.13919999997</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-35715.19489999997</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-198346.492</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-210283.2006</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1774076.037612906</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2014398.252212906</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2447005.419912906</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3100672.186670761</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2960268.8941027</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1959688.559006464</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1642775.412538358</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2109450.397090161</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>275875.6037665874</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-492153.9472334125</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-997780.7592663595</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
